--- a/output/分型数值化.xlsx
+++ b/output/分型数值化.xlsx
@@ -1,20 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
-  <workbookPr/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+  <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12920"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="144525" concurrentCalc="0"/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
   <si>
     <t>INHOSPTIAL_ID</t>
   </si>
@@ -26,375 +26,32 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_(&quot;HK$&quot;* #,##0_);_(&quot;HK$&quot;* \(#,##0\);_(&quot;HK$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="41" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="176" formatCode="_(&quot;HK$&quot;* #,##0.00_);_(&quot;HK$&quot;* \(#,##0.00\);_(&quot;HK$&quot;* &quot;-&quot;??_);_(@_)"/>
-  </numFmts>
-  <fonts count="22">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
+      <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
+      <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="33">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="10">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -417,251 +74,9 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="49">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="11" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="12" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="11" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
   <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -669,63 +84,11 @@
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
-  <cellStyles count="49">
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="1" builtinId="52"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="2" builtinId="42"/>
-    <cellStyle name="强调文字颜色 4" xfId="3" builtinId="41"/>
-    <cellStyle name="输入" xfId="4" builtinId="20"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="5" builtinId="39"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="6" builtinId="38"/>
-    <cellStyle name="货币" xfId="7" builtinId="4"/>
-    <cellStyle name="强调文字颜色 3" xfId="8" builtinId="37"/>
-    <cellStyle name="百分比" xfId="9" builtinId="5"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="10" builtinId="36"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="11" builtinId="48"/>
-    <cellStyle name="强调文字颜色 2" xfId="12" builtinId="33"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="13" builtinId="32"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="14" builtinId="44"/>
-    <cellStyle name="计算" xfId="15" builtinId="22"/>
-    <cellStyle name="强调文字颜色 1" xfId="16" builtinId="29"/>
-    <cellStyle name="适中" xfId="17" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="18" builtinId="46"/>
-    <cellStyle name="好" xfId="19" builtinId="26"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="20" builtinId="30"/>
-    <cellStyle name="汇总" xfId="21" builtinId="25"/>
-    <cellStyle name="差" xfId="22" builtinId="27"/>
-    <cellStyle name="检查单元格" xfId="23" builtinId="23"/>
-    <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="标题 1" xfId="25" builtinId="16"/>
-    <cellStyle name="解释性文本" xfId="26" builtinId="53"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="27" builtinId="34"/>
-    <cellStyle name="标题 4" xfId="28" builtinId="19"/>
-    <cellStyle name="货币[0]" xfId="29" builtinId="7"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="30" builtinId="43"/>
-    <cellStyle name="千位分隔" xfId="31" builtinId="3"/>
-    <cellStyle name="已访问的超链接" xfId="32" builtinId="9"/>
-    <cellStyle name="标题" xfId="33" builtinId="15"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="34" builtinId="35"/>
-    <cellStyle name="警告文本" xfId="35" builtinId="11"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
-    <cellStyle name="注释" xfId="37" builtinId="10"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="38" builtinId="50"/>
-    <cellStyle name="强调文字颜色 5" xfId="39" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="40" builtinId="51"/>
-    <cellStyle name="超链接" xfId="41" builtinId="8"/>
-    <cellStyle name="千位分隔[0]" xfId="42" builtinId="6"/>
-    <cellStyle name="标题 2" xfId="43" builtinId="17"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="标题 3" xfId="45" builtinId="18"/>
-    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="47" builtinId="31"/>
-    <cellStyle name="链接单元格" xfId="48" builtinId="24"/>
+  <cellStyles count="1">
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
@@ -1008,19 +371,17 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr/>
-  <dimension ref="A1:B262"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:B256"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.8" outlineLevelCol="1"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" s="1" t="s">
@@ -1163,7 +524,7 @@
         <v>20</v>
       </c>
       <c r="B18">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="19" spans="1:2">
@@ -1203,7 +564,7 @@
         <v>25</v>
       </c>
       <c r="B23">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="24" spans="1:2">
@@ -1331,20 +692,20 @@
         <v>42</v>
       </c>
       <c r="B39">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="40" spans="1:2">
       <c r="A40">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B40">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="41" spans="1:2">
       <c r="A41">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B41">
         <v>1</v>
@@ -1352,23 +713,23 @@
     </row>
     <row r="42" spans="1:2">
       <c r="A42">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B42">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="43" spans="1:2">
       <c r="A43">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B43">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="44" spans="1:2">
       <c r="A44">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B44">
         <v>1</v>
@@ -1376,7 +737,7 @@
     </row>
     <row r="45" spans="1:2">
       <c r="A45">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B45">
         <v>1</v>
@@ -1384,7 +745,7 @@
     </row>
     <row r="46" spans="1:2">
       <c r="A46">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B46">
         <v>1</v>
@@ -1392,7 +753,7 @@
     </row>
     <row r="47" spans="1:2">
       <c r="A47">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B47">
         <v>1</v>
@@ -1400,7 +761,7 @@
     </row>
     <row r="48" spans="1:2">
       <c r="A48">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B48">
         <v>1</v>
@@ -1408,7 +769,7 @@
     </row>
     <row r="49" spans="1:2">
       <c r="A49">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B49">
         <v>1</v>
@@ -1416,7 +777,7 @@
     </row>
     <row r="50" spans="1:2">
       <c r="A50">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B50">
         <v>1</v>
@@ -1424,7 +785,7 @@
     </row>
     <row r="51" spans="1:2">
       <c r="A51">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B51">
         <v>1</v>
@@ -1432,7 +793,7 @@
     </row>
     <row r="52" spans="1:2">
       <c r="A52">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B52">
         <v>1</v>
@@ -1440,7 +801,7 @@
     </row>
     <row r="53" spans="1:2">
       <c r="A53">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B53">
         <v>1</v>
@@ -1448,7 +809,7 @@
     </row>
     <row r="54" spans="1:2">
       <c r="A54">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="B54">
         <v>1</v>
@@ -1456,7 +817,7 @@
     </row>
     <row r="55" spans="1:2">
       <c r="A55">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B55">
         <v>1</v>
@@ -1464,23 +825,23 @@
     </row>
     <row r="56" spans="1:2">
       <c r="A56">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B56">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="57" spans="1:2">
       <c r="A57">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="B57">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="58" spans="1:2">
       <c r="A58">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B58">
         <v>1</v>
@@ -1488,23 +849,23 @@
     </row>
     <row r="59" spans="1:2">
       <c r="A59">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B59">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="60" spans="1:2">
       <c r="A60">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B60">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="61" spans="1:2">
       <c r="A61">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B61">
         <v>1</v>
@@ -1512,7 +873,7 @@
     </row>
     <row r="62" spans="1:2">
       <c r="A62">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B62">
         <v>1</v>
@@ -1520,7 +881,7 @@
     </row>
     <row r="63" spans="1:2">
       <c r="A63">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B63">
         <v>1</v>
@@ -1528,7 +889,7 @@
     </row>
     <row r="64" spans="1:2">
       <c r="A64">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B64">
         <v>1</v>
@@ -1536,7 +897,7 @@
     </row>
     <row r="65" spans="1:2">
       <c r="A65">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="B65">
         <v>1</v>
@@ -1544,7 +905,7 @@
     </row>
     <row r="66" spans="1:2">
       <c r="A66">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B66">
         <v>1</v>
@@ -1552,15 +913,15 @@
     </row>
     <row r="67" spans="1:2">
       <c r="A67">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="B67">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="68" spans="1:2">
       <c r="A68">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="B68">
         <v>2</v>
@@ -1568,31 +929,31 @@
     </row>
     <row r="69" spans="1:2">
       <c r="A69">
-        <v>77</v>
+        <v>83</v>
       </c>
       <c r="B69">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="70" spans="1:2">
       <c r="A70">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="B70">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="71" spans="1:2">
       <c r="A71">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="B71">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="72" spans="1:2">
       <c r="A72">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="B72">
         <v>1</v>
@@ -1600,15 +961,15 @@
     </row>
     <row r="73" spans="1:2">
       <c r="A73">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B73">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="74" spans="1:2">
       <c r="A74">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B74">
         <v>1</v>
@@ -1616,7 +977,7 @@
     </row>
     <row r="75" spans="1:2">
       <c r="A75">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B75">
         <v>1</v>
@@ -1624,15 +985,15 @@
     </row>
     <row r="76" spans="1:2">
       <c r="A76">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="B76">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="77" spans="1:2">
       <c r="A77">
-        <v>91</v>
+        <v>97</v>
       </c>
       <c r="B77">
         <v>1</v>
@@ -1640,15 +1001,15 @@
     </row>
     <row r="78" spans="1:2">
       <c r="A78">
-        <v>93</v>
+        <v>98</v>
       </c>
       <c r="B78">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="79" spans="1:2">
       <c r="A79">
-        <v>97</v>
+        <v>103</v>
       </c>
       <c r="B79">
         <v>1</v>
@@ -1656,7 +1017,7 @@
     </row>
     <row r="80" spans="1:2">
       <c r="A80">
-        <v>98</v>
+        <v>104</v>
       </c>
       <c r="B80">
         <v>1</v>
@@ -1664,7 +1025,7 @@
     </row>
     <row r="81" spans="1:2">
       <c r="A81">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="B81">
         <v>1</v>
@@ -1672,7 +1033,7 @@
     </row>
     <row r="82" spans="1:2">
       <c r="A82">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="B82">
         <v>1</v>
@@ -1680,7 +1041,7 @@
     </row>
     <row r="83" spans="1:2">
       <c r="A83">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="B83">
         <v>1</v>
@@ -1688,7 +1049,7 @@
     </row>
     <row r="84" spans="1:2">
       <c r="A84">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="B84">
         <v>1</v>
@@ -1696,15 +1057,15 @@
     </row>
     <row r="85" spans="1:2">
       <c r="A85">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="B85">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="86" spans="1:2">
       <c r="A86">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="B86">
         <v>1</v>
@@ -1712,23 +1073,23 @@
     </row>
     <row r="87" spans="1:2">
       <c r="A87">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="B87">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="88" spans="1:2">
       <c r="A88">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="B88">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="89" spans="1:2">
       <c r="A89">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="B89">
         <v>1</v>
@@ -1736,7 +1097,7 @@
     </row>
     <row r="90" spans="1:2">
       <c r="A90">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="B90">
         <v>1</v>
@@ -1744,7 +1105,7 @@
     </row>
     <row r="91" spans="1:2">
       <c r="A91">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="B91">
         <v>1</v>
@@ -1752,7 +1113,7 @@
     </row>
     <row r="92" spans="1:2">
       <c r="A92">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="B92">
         <v>1</v>
@@ -1760,7 +1121,7 @@
     </row>
     <row r="93" spans="1:2">
       <c r="A93">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="B93">
         <v>1</v>
@@ -1768,7 +1129,7 @@
     </row>
     <row r="94" spans="1:2">
       <c r="A94">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="B94">
         <v>1</v>
@@ -1776,7 +1137,7 @@
     </row>
     <row r="95" spans="1:2">
       <c r="A95">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="B95">
         <v>1</v>
@@ -1784,7 +1145,7 @@
     </row>
     <row r="96" spans="1:2">
       <c r="A96">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="B96">
         <v>1</v>
@@ -1792,7 +1153,7 @@
     </row>
     <row r="97" spans="1:2">
       <c r="A97">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="B97">
         <v>1</v>
@@ -1800,7 +1161,7 @@
     </row>
     <row r="98" spans="1:2">
       <c r="A98">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="B98">
         <v>1</v>
@@ -1808,7 +1169,7 @@
     </row>
     <row r="99" spans="1:2">
       <c r="A99">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="B99">
         <v>1</v>
@@ -1816,7 +1177,7 @@
     </row>
     <row r="100" spans="1:2">
       <c r="A100">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="B100">
         <v>1</v>
@@ -1824,15 +1185,15 @@
     </row>
     <row r="101" spans="1:2">
       <c r="A101">
-        <v>125</v>
+        <v>130</v>
       </c>
       <c r="B101">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="102" spans="1:2">
       <c r="A102">
-        <v>126</v>
+        <v>132</v>
       </c>
       <c r="B102">
         <v>1</v>
@@ -1840,7 +1201,7 @@
     </row>
     <row r="103" spans="1:2">
       <c r="A103">
-        <v>127</v>
+        <v>133</v>
       </c>
       <c r="B103">
         <v>1</v>
@@ -1848,7 +1209,7 @@
     </row>
     <row r="104" spans="1:2">
       <c r="A104">
-        <v>128</v>
+        <v>135</v>
       </c>
       <c r="B104">
         <v>1</v>
@@ -1856,7 +1217,7 @@
     </row>
     <row r="105" spans="1:2">
       <c r="A105">
-        <v>130</v>
+        <v>136</v>
       </c>
       <c r="B105">
         <v>1</v>
@@ -1864,15 +1225,15 @@
     </row>
     <row r="106" spans="1:2">
       <c r="A106">
-        <v>131</v>
+        <v>137</v>
       </c>
       <c r="B106">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="107" spans="1:2">
       <c r="A107">
-        <v>132</v>
+        <v>138</v>
       </c>
       <c r="B107">
         <v>1</v>
@@ -1880,7 +1241,7 @@
     </row>
     <row r="108" spans="1:2">
       <c r="A108">
-        <v>133</v>
+        <v>139</v>
       </c>
       <c r="B108">
         <v>1</v>
@@ -1888,15 +1249,15 @@
     </row>
     <row r="109" spans="1:2">
       <c r="A109">
-        <v>135</v>
+        <v>140</v>
       </c>
       <c r="B109">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="110" spans="1:2">
       <c r="A110">
-        <v>136</v>
+        <v>141</v>
       </c>
       <c r="B110">
         <v>1</v>
@@ -1904,7 +1265,7 @@
     </row>
     <row r="111" spans="1:2">
       <c r="A111">
-        <v>137</v>
+        <v>142</v>
       </c>
       <c r="B111">
         <v>1</v>
@@ -1912,7 +1273,7 @@
     </row>
     <row r="112" spans="1:2">
       <c r="A112">
-        <v>138</v>
+        <v>143</v>
       </c>
       <c r="B112">
         <v>1</v>
@@ -1920,7 +1281,7 @@
     </row>
     <row r="113" spans="1:2">
       <c r="A113">
-        <v>139</v>
+        <v>144</v>
       </c>
       <c r="B113">
         <v>1</v>
@@ -1928,15 +1289,15 @@
     </row>
     <row r="114" spans="1:2">
       <c r="A114">
-        <v>140</v>
+        <v>145</v>
       </c>
       <c r="B114">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="115" spans="1:2">
       <c r="A115">
-        <v>141</v>
+        <v>146</v>
       </c>
       <c r="B115">
         <v>1</v>
@@ -1944,7 +1305,7 @@
     </row>
     <row r="116" spans="1:2">
       <c r="A116">
-        <v>142</v>
+        <v>147</v>
       </c>
       <c r="B116">
         <v>1</v>
@@ -1952,7 +1313,7 @@
     </row>
     <row r="117" spans="1:2">
       <c r="A117">
-        <v>143</v>
+        <v>148</v>
       </c>
       <c r="B117">
         <v>1</v>
@@ -1960,7 +1321,7 @@
     </row>
     <row r="118" spans="1:2">
       <c r="A118">
-        <v>144</v>
+        <v>149</v>
       </c>
       <c r="B118">
         <v>1</v>
@@ -1968,23 +1329,23 @@
     </row>
     <row r="119" spans="1:2">
       <c r="A119">
-        <v>145</v>
+        <v>150</v>
       </c>
       <c r="B119">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="120" spans="1:2">
       <c r="A120">
-        <v>146</v>
+        <v>151</v>
       </c>
       <c r="B120">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="121" spans="1:2">
       <c r="A121">
-        <v>147</v>
+        <v>152</v>
       </c>
       <c r="B121">
         <v>1</v>
@@ -1992,7 +1353,7 @@
     </row>
     <row r="122" spans="1:2">
       <c r="A122">
-        <v>148</v>
+        <v>154</v>
       </c>
       <c r="B122">
         <v>1</v>
@@ -2000,7 +1361,7 @@
     </row>
     <row r="123" spans="1:2">
       <c r="A123">
-        <v>149</v>
+        <v>155</v>
       </c>
       <c r="B123">
         <v>1</v>
@@ -2008,23 +1369,23 @@
     </row>
     <row r="124" spans="1:2">
       <c r="A124">
-        <v>150</v>
+        <v>156</v>
       </c>
       <c r="B124">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="125" spans="1:2">
       <c r="A125">
-        <v>151</v>
+        <v>157</v>
       </c>
       <c r="B125">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="126" spans="1:2">
       <c r="A126">
-        <v>152</v>
+        <v>158</v>
       </c>
       <c r="B126">
         <v>1</v>
@@ -2032,23 +1393,23 @@
     </row>
     <row r="127" spans="1:2">
       <c r="A127">
-        <v>153</v>
+        <v>161</v>
       </c>
       <c r="B127">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="128" spans="1:2">
       <c r="A128">
-        <v>154</v>
+        <v>162</v>
       </c>
       <c r="B128">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="129" spans="1:2">
       <c r="A129">
-        <v>155</v>
+        <v>165</v>
       </c>
       <c r="B129">
         <v>1</v>
@@ -2056,7 +1417,7 @@
     </row>
     <row r="130" spans="1:2">
       <c r="A130">
-        <v>156</v>
+        <v>166</v>
       </c>
       <c r="B130">
         <v>1</v>
@@ -2064,15 +1425,15 @@
     </row>
     <row r="131" spans="1:2">
       <c r="A131">
-        <v>157</v>
+        <v>168</v>
       </c>
       <c r="B131">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="132" spans="1:2">
       <c r="A132">
-        <v>158</v>
+        <v>173</v>
       </c>
       <c r="B132">
         <v>1</v>
@@ -2080,7 +1441,7 @@
     </row>
     <row r="133" spans="1:2">
       <c r="A133">
-        <v>161</v>
+        <v>177</v>
       </c>
       <c r="B133">
         <v>1</v>
@@ -2088,15 +1449,15 @@
     </row>
     <row r="134" spans="1:2">
       <c r="A134">
-        <v>162</v>
+        <v>186</v>
       </c>
       <c r="B134">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="135" spans="1:2">
       <c r="A135">
-        <v>165</v>
+        <v>188</v>
       </c>
       <c r="B135">
         <v>1</v>
@@ -2104,23 +1465,23 @@
     </row>
     <row r="136" spans="1:2">
       <c r="A136">
-        <v>166</v>
+        <v>189</v>
       </c>
       <c r="B136">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="137" spans="1:2">
       <c r="A137">
-        <v>168</v>
+        <v>191</v>
       </c>
       <c r="B137">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="138" spans="1:2">
       <c r="A138">
-        <v>173</v>
+        <v>192</v>
       </c>
       <c r="B138">
         <v>1</v>
@@ -2128,7 +1489,7 @@
     </row>
     <row r="139" spans="1:2">
       <c r="A139">
-        <v>177</v>
+        <v>193</v>
       </c>
       <c r="B139">
         <v>1</v>
@@ -2136,7 +1497,7 @@
     </row>
     <row r="140" spans="1:2">
       <c r="A140">
-        <v>186</v>
+        <v>194</v>
       </c>
       <c r="B140">
         <v>1</v>
@@ -2144,7 +1505,7 @@
     </row>
     <row r="141" spans="1:2">
       <c r="A141">
-        <v>188</v>
+        <v>195</v>
       </c>
       <c r="B141">
         <v>1</v>
@@ -2152,15 +1513,15 @@
     </row>
     <row r="142" spans="1:2">
       <c r="A142">
-        <v>189</v>
+        <v>196</v>
       </c>
       <c r="B142">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="143" spans="1:2">
       <c r="A143">
-        <v>191</v>
+        <v>197</v>
       </c>
       <c r="B143">
         <v>1</v>
@@ -2168,7 +1529,7 @@
     </row>
     <row r="144" spans="1:2">
       <c r="A144">
-        <v>192</v>
+        <v>198</v>
       </c>
       <c r="B144">
         <v>1</v>
@@ -2176,31 +1537,31 @@
     </row>
     <row r="145" spans="1:2">
       <c r="A145">
-        <v>193</v>
+        <v>199</v>
       </c>
       <c r="B145">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="146" spans="1:2">
       <c r="A146">
-        <v>194</v>
+        <v>200</v>
       </c>
       <c r="B146">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="147" spans="1:2">
       <c r="A147">
-        <v>195</v>
+        <v>201</v>
       </c>
       <c r="B147">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="148" spans="1:2">
       <c r="A148">
-        <v>196</v>
+        <v>202</v>
       </c>
       <c r="B148">
         <v>1</v>
@@ -2208,7 +1569,7 @@
     </row>
     <row r="149" spans="1:2">
       <c r="A149">
-        <v>197</v>
+        <v>203</v>
       </c>
       <c r="B149">
         <v>1</v>
@@ -2216,7 +1577,7 @@
     </row>
     <row r="150" spans="1:2">
       <c r="A150">
-        <v>198</v>
+        <v>204</v>
       </c>
       <c r="B150">
         <v>1</v>
@@ -2224,31 +1585,31 @@
     </row>
     <row r="151" spans="1:2">
       <c r="A151">
-        <v>199</v>
+        <v>205</v>
       </c>
       <c r="B151">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="152" spans="1:2">
       <c r="A152">
-        <v>200</v>
+        <v>207</v>
       </c>
       <c r="B152">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="153" spans="1:2">
       <c r="A153">
-        <v>201</v>
+        <v>208</v>
       </c>
       <c r="B153">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="154" spans="1:2">
       <c r="A154">
-        <v>202</v>
+        <v>209</v>
       </c>
       <c r="B154">
         <v>1</v>
@@ -2256,15 +1617,15 @@
     </row>
     <row r="155" spans="1:2">
       <c r="A155">
-        <v>203</v>
+        <v>210</v>
       </c>
       <c r="B155">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="156" spans="1:2">
       <c r="A156">
-        <v>204</v>
+        <v>211</v>
       </c>
       <c r="B156">
         <v>1</v>
@@ -2272,15 +1633,15 @@
     </row>
     <row r="157" spans="1:2">
       <c r="A157">
-        <v>205</v>
+        <v>212</v>
       </c>
       <c r="B157">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="158" spans="1:2">
       <c r="A158">
-        <v>207</v>
+        <v>213</v>
       </c>
       <c r="B158">
         <v>1</v>
@@ -2288,7 +1649,7 @@
     </row>
     <row r="159" spans="1:2">
       <c r="A159">
-        <v>208</v>
+        <v>214</v>
       </c>
       <c r="B159">
         <v>1</v>
@@ -2296,23 +1657,23 @@
     </row>
     <row r="160" spans="1:2">
       <c r="A160">
-        <v>209</v>
+        <v>215</v>
       </c>
       <c r="B160">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="161" spans="1:2">
       <c r="A161">
-        <v>210</v>
+        <v>217</v>
       </c>
       <c r="B161">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="162" spans="1:2">
       <c r="A162">
-        <v>211</v>
+        <v>218</v>
       </c>
       <c r="B162">
         <v>1</v>
@@ -2320,7 +1681,7 @@
     </row>
     <row r="163" spans="1:2">
       <c r="A163">
-        <v>212</v>
+        <v>219</v>
       </c>
       <c r="B163">
         <v>1</v>
@@ -2328,7 +1689,7 @@
     </row>
     <row r="164" spans="1:2">
       <c r="A164">
-        <v>213</v>
+        <v>220</v>
       </c>
       <c r="B164">
         <v>1</v>
@@ -2336,7 +1697,7 @@
     </row>
     <row r="165" spans="1:2">
       <c r="A165">
-        <v>214</v>
+        <v>221</v>
       </c>
       <c r="B165">
         <v>1</v>
@@ -2344,15 +1705,15 @@
     </row>
     <row r="166" spans="1:2">
       <c r="A166">
-        <v>215</v>
+        <v>223</v>
       </c>
       <c r="B166">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="167" spans="1:2">
       <c r="A167">
-        <v>217</v>
+        <v>224</v>
       </c>
       <c r="B167">
         <v>1</v>
@@ -2360,7 +1721,7 @@
     </row>
     <row r="168" spans="1:2">
       <c r="A168">
-        <v>218</v>
+        <v>225</v>
       </c>
       <c r="B168">
         <v>1</v>
@@ -2368,7 +1729,7 @@
     </row>
     <row r="169" spans="1:2">
       <c r="A169">
-        <v>219</v>
+        <v>226</v>
       </c>
       <c r="B169">
         <v>1</v>
@@ -2376,7 +1737,7 @@
     </row>
     <row r="170" spans="1:2">
       <c r="A170">
-        <v>220</v>
+        <v>227</v>
       </c>
       <c r="B170">
         <v>1</v>
@@ -2384,7 +1745,7 @@
     </row>
     <row r="171" spans="1:2">
       <c r="A171">
-        <v>221</v>
+        <v>228</v>
       </c>
       <c r="B171">
         <v>1</v>
@@ -2392,7 +1753,7 @@
     </row>
     <row r="172" spans="1:2">
       <c r="A172">
-        <v>223</v>
+        <v>229</v>
       </c>
       <c r="B172">
         <v>1</v>
@@ -2400,15 +1761,15 @@
     </row>
     <row r="173" spans="1:2">
       <c r="A173">
-        <v>224</v>
+        <v>230</v>
       </c>
       <c r="B173">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="174" spans="1:2">
       <c r="A174">
-        <v>225</v>
+        <v>231</v>
       </c>
       <c r="B174">
         <v>1</v>
@@ -2416,7 +1777,7 @@
     </row>
     <row r="175" spans="1:2">
       <c r="A175">
-        <v>226</v>
+        <v>232</v>
       </c>
       <c r="B175">
         <v>1</v>
@@ -2424,7 +1785,7 @@
     </row>
     <row r="176" spans="1:2">
       <c r="A176">
-        <v>227</v>
+        <v>233</v>
       </c>
       <c r="B176">
         <v>1</v>
@@ -2432,7 +1793,7 @@
     </row>
     <row r="177" spans="1:2">
       <c r="A177">
-        <v>228</v>
+        <v>234</v>
       </c>
       <c r="B177">
         <v>1</v>
@@ -2440,7 +1801,7 @@
     </row>
     <row r="178" spans="1:2">
       <c r="A178">
-        <v>229</v>
+        <v>235</v>
       </c>
       <c r="B178">
         <v>1</v>
@@ -2448,15 +1809,15 @@
     </row>
     <row r="179" spans="1:2">
       <c r="A179">
-        <v>230</v>
+        <v>236</v>
       </c>
       <c r="B179">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="180" spans="1:2">
       <c r="A180">
-        <v>231</v>
+        <v>237</v>
       </c>
       <c r="B180">
         <v>1</v>
@@ -2464,7 +1825,7 @@
     </row>
     <row r="181" spans="1:2">
       <c r="A181">
-        <v>232</v>
+        <v>242</v>
       </c>
       <c r="B181">
         <v>1</v>
@@ -2472,7 +1833,7 @@
     </row>
     <row r="182" spans="1:2">
       <c r="A182">
-        <v>233</v>
+        <v>247</v>
       </c>
       <c r="B182">
         <v>1</v>
@@ -2480,7 +1841,7 @@
     </row>
     <row r="183" spans="1:2">
       <c r="A183">
-        <v>234</v>
+        <v>248</v>
       </c>
       <c r="B183">
         <v>1</v>
@@ -2488,7 +1849,7 @@
     </row>
     <row r="184" spans="1:2">
       <c r="A184">
-        <v>235</v>
+        <v>249</v>
       </c>
       <c r="B184">
         <v>1</v>
@@ -2496,7 +1857,7 @@
     </row>
     <row r="185" spans="1:2">
       <c r="A185">
-        <v>236</v>
+        <v>256</v>
       </c>
       <c r="B185">
         <v>1</v>
@@ -2504,7 +1865,7 @@
     </row>
     <row r="186" spans="1:2">
       <c r="A186">
-        <v>237</v>
+        <v>258</v>
       </c>
       <c r="B186">
         <v>1</v>
@@ -2512,15 +1873,15 @@
     </row>
     <row r="187" spans="1:2">
       <c r="A187">
-        <v>242</v>
+        <v>260</v>
       </c>
       <c r="B187">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="188" spans="1:2">
       <c r="A188">
-        <v>247</v>
+        <v>261</v>
       </c>
       <c r="B188">
         <v>1</v>
@@ -2528,15 +1889,15 @@
     </row>
     <row r="189" spans="1:2">
       <c r="A189">
-        <v>248</v>
+        <v>262</v>
       </c>
       <c r="B189">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="190" spans="1:2">
       <c r="A190">
-        <v>249</v>
+        <v>263</v>
       </c>
       <c r="B190">
         <v>1</v>
@@ -2544,7 +1905,7 @@
     </row>
     <row r="191" spans="1:2">
       <c r="A191">
-        <v>256</v>
+        <v>265</v>
       </c>
       <c r="B191">
         <v>1</v>
@@ -2552,7 +1913,7 @@
     </row>
     <row r="192" spans="1:2">
       <c r="A192">
-        <v>258</v>
+        <v>267</v>
       </c>
       <c r="B192">
         <v>1</v>
@@ -2560,31 +1921,31 @@
     </row>
     <row r="193" spans="1:2">
       <c r="A193">
-        <v>260</v>
+        <v>268</v>
       </c>
       <c r="B193">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="194" spans="1:2">
       <c r="A194">
-        <v>261</v>
+        <v>269</v>
       </c>
       <c r="B194">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="195" spans="1:2">
       <c r="A195">
-        <v>262</v>
+        <v>270</v>
       </c>
       <c r="B195">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="196" spans="1:2">
       <c r="A196">
-        <v>263</v>
+        <v>271</v>
       </c>
       <c r="B196">
         <v>1</v>
@@ -2592,7 +1953,7 @@
     </row>
     <row r="197" spans="1:2">
       <c r="A197">
-        <v>265</v>
+        <v>275</v>
       </c>
       <c r="B197">
         <v>1</v>
@@ -2600,7 +1961,7 @@
     </row>
     <row r="198" spans="1:2">
       <c r="A198">
-        <v>267</v>
+        <v>276</v>
       </c>
       <c r="B198">
         <v>1</v>
@@ -2608,31 +1969,31 @@
     </row>
     <row r="199" spans="1:2">
       <c r="A199">
-        <v>268</v>
+        <v>281</v>
       </c>
       <c r="B199">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="200" spans="1:2">
       <c r="A200">
-        <v>269</v>
+        <v>295</v>
       </c>
       <c r="B200">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="201" spans="1:2">
       <c r="A201">
-        <v>270</v>
+        <v>316</v>
       </c>
       <c r="B201">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="202" spans="1:2">
       <c r="A202">
-        <v>271</v>
+        <v>317</v>
       </c>
       <c r="B202">
         <v>1</v>
@@ -2640,7 +2001,7 @@
     </row>
     <row r="203" spans="1:2">
       <c r="A203">
-        <v>275</v>
+        <v>327</v>
       </c>
       <c r="B203">
         <v>1</v>
@@ -2648,7 +2009,7 @@
     </row>
     <row r="204" spans="1:2">
       <c r="A204">
-        <v>276</v>
+        <v>349</v>
       </c>
       <c r="B204">
         <v>1</v>
@@ -2656,39 +2017,39 @@
     </row>
     <row r="205" spans="1:2">
       <c r="A205">
-        <v>281</v>
+        <v>359</v>
       </c>
       <c r="B205">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="206" spans="1:2">
       <c r="A206">
-        <v>295</v>
+        <v>428</v>
       </c>
       <c r="B206">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="207" spans="1:2">
       <c r="A207">
-        <v>316</v>
+        <v>441</v>
       </c>
       <c r="B207">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="208" spans="1:2">
       <c r="A208">
-        <v>317</v>
+        <v>457</v>
       </c>
       <c r="B208">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="209" spans="1:2">
       <c r="A209">
-        <v>327</v>
+        <v>470</v>
       </c>
       <c r="B209">
         <v>1</v>
@@ -2696,7 +2057,7 @@
     </row>
     <row r="210" spans="1:2">
       <c r="A210">
-        <v>349</v>
+        <v>494</v>
       </c>
       <c r="B210">
         <v>1</v>
@@ -2704,23 +2065,23 @@
     </row>
     <row r="211" spans="1:2">
       <c r="A211">
-        <v>359</v>
+        <v>529</v>
       </c>
       <c r="B211">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="212" spans="1:2">
       <c r="A212">
-        <v>428</v>
+        <v>542</v>
       </c>
       <c r="B212">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="213" spans="1:2">
       <c r="A213">
-        <v>441</v>
+        <v>553</v>
       </c>
       <c r="B213">
         <v>1</v>
@@ -2728,15 +2089,15 @@
     </row>
     <row r="214" spans="1:2">
       <c r="A214">
-        <v>457</v>
+        <v>615</v>
       </c>
       <c r="B214">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="215" spans="1:2">
       <c r="A215">
-        <v>470</v>
+        <v>676</v>
       </c>
       <c r="B215">
         <v>1</v>
@@ -2744,7 +2105,7 @@
     </row>
     <row r="216" spans="1:2">
       <c r="A216">
-        <v>494</v>
+        <v>694</v>
       </c>
       <c r="B216">
         <v>1</v>
@@ -2752,7 +2113,7 @@
     </row>
     <row r="217" spans="1:2">
       <c r="A217">
-        <v>529</v>
+        <v>806</v>
       </c>
       <c r="B217">
         <v>1</v>
@@ -2760,7 +2121,7 @@
     </row>
     <row r="218" spans="1:2">
       <c r="A218">
-        <v>542</v>
+        <v>826</v>
       </c>
       <c r="B218">
         <v>1</v>
@@ -2768,7 +2129,7 @@
     </row>
     <row r="219" spans="1:2">
       <c r="A219">
-        <v>553</v>
+        <v>888</v>
       </c>
       <c r="B219">
         <v>1</v>
@@ -2776,7 +2137,7 @@
     </row>
     <row r="220" spans="1:2">
       <c r="A220">
-        <v>615</v>
+        <v>919</v>
       </c>
       <c r="B220">
         <v>1</v>
@@ -2784,7 +2145,7 @@
     </row>
     <row r="221" spans="1:2">
       <c r="A221">
-        <v>676</v>
+        <v>925</v>
       </c>
       <c r="B221">
         <v>1</v>
@@ -2792,7 +2153,7 @@
     </row>
     <row r="222" spans="1:2">
       <c r="A222">
-        <v>694</v>
+        <v>937</v>
       </c>
       <c r="B222">
         <v>1</v>
@@ -2800,7 +2161,7 @@
     </row>
     <row r="223" spans="1:2">
       <c r="A223">
-        <v>806</v>
+        <v>951</v>
       </c>
       <c r="B223">
         <v>1</v>
@@ -2808,7 +2169,7 @@
     </row>
     <row r="224" spans="1:2">
       <c r="A224">
-        <v>826</v>
+        <v>1007</v>
       </c>
       <c r="B224">
         <v>1</v>
@@ -2816,15 +2177,15 @@
     </row>
     <row r="225" spans="1:2">
       <c r="A225">
-        <v>888</v>
+        <v>1024</v>
       </c>
       <c r="B225">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="226" spans="1:2">
       <c r="A226">
-        <v>919</v>
+        <v>1105</v>
       </c>
       <c r="B226">
         <v>1</v>
@@ -2832,7 +2193,7 @@
     </row>
     <row r="227" spans="1:2">
       <c r="A227">
-        <v>925</v>
+        <v>1132</v>
       </c>
       <c r="B227">
         <v>1</v>
@@ -2840,7 +2201,7 @@
     </row>
     <row r="228" spans="1:2">
       <c r="A228">
-        <v>937</v>
+        <v>1148</v>
       </c>
       <c r="B228">
         <v>1</v>
@@ -2848,15 +2209,15 @@
     </row>
     <row r="229" spans="1:2">
       <c r="A229">
-        <v>951</v>
+        <v>1190</v>
       </c>
       <c r="B229">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="230" spans="1:2">
       <c r="A230">
-        <v>1007</v>
+        <v>1367</v>
       </c>
       <c r="B230">
         <v>1</v>
@@ -2864,15 +2225,15 @@
     </row>
     <row r="231" spans="1:2">
       <c r="A231">
-        <v>1024</v>
+        <v>1398</v>
       </c>
       <c r="B231">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="232" spans="1:2">
       <c r="A232">
-        <v>1105</v>
+        <v>1480</v>
       </c>
       <c r="B232">
         <v>1</v>
@@ -2880,7 +2241,7 @@
     </row>
     <row r="233" spans="1:2">
       <c r="A233">
-        <v>1132</v>
+        <v>1483</v>
       </c>
       <c r="B233">
         <v>1</v>
@@ -2888,7 +2249,7 @@
     </row>
     <row r="234" spans="1:2">
       <c r="A234">
-        <v>1148</v>
+        <v>1528</v>
       </c>
       <c r="B234">
         <v>1</v>
@@ -2896,23 +2257,23 @@
     </row>
     <row r="235" spans="1:2">
       <c r="A235">
-        <v>1190</v>
+        <v>1635</v>
       </c>
       <c r="B235">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="236" spans="1:2">
       <c r="A236">
-        <v>1367</v>
+        <v>1703</v>
       </c>
       <c r="B236">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="237" spans="1:2">
       <c r="A237">
-        <v>1398</v>
+        <v>1708</v>
       </c>
       <c r="B237">
         <v>1</v>
@@ -2920,7 +2281,7 @@
     </row>
     <row r="238" spans="1:2">
       <c r="A238">
-        <v>1480</v>
+        <v>1776</v>
       </c>
       <c r="B238">
         <v>1</v>
@@ -2928,7 +2289,7 @@
     </row>
     <row r="239" spans="1:2">
       <c r="A239">
-        <v>1483</v>
+        <v>1788</v>
       </c>
       <c r="B239">
         <v>1</v>
@@ -2936,7 +2297,7 @@
     </row>
     <row r="240" spans="1:2">
       <c r="A240">
-        <v>1528</v>
+        <v>1833</v>
       </c>
       <c r="B240">
         <v>1</v>
@@ -2944,7 +2305,7 @@
     </row>
     <row r="241" spans="1:2">
       <c r="A241">
-        <v>1635</v>
+        <v>1891</v>
       </c>
       <c r="B241">
         <v>1</v>
@@ -2952,15 +2313,15 @@
     </row>
     <row r="242" spans="1:2">
       <c r="A242">
-        <v>1703</v>
+        <v>1926</v>
       </c>
       <c r="B242">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="243" spans="1:2">
       <c r="A243">
-        <v>1708</v>
+        <v>1929</v>
       </c>
       <c r="B243">
         <v>1</v>
@@ -2968,15 +2329,15 @@
     </row>
     <row r="244" spans="1:2">
       <c r="A244">
-        <v>1776</v>
+        <v>1946</v>
       </c>
       <c r="B244">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="245" spans="1:2">
       <c r="A245">
-        <v>1788</v>
+        <v>2034</v>
       </c>
       <c r="B245">
         <v>1</v>
@@ -2984,7 +2345,7 @@
     </row>
     <row r="246" spans="1:2">
       <c r="A246">
-        <v>1833</v>
+        <v>2043</v>
       </c>
       <c r="B246">
         <v>1</v>
@@ -2992,15 +2353,15 @@
     </row>
     <row r="247" spans="1:2">
       <c r="A247">
-        <v>1891</v>
+        <v>2285</v>
       </c>
       <c r="B247">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="248" spans="1:2">
       <c r="A248">
-        <v>1926</v>
+        <v>2297</v>
       </c>
       <c r="B248">
         <v>1</v>
@@ -3008,31 +2369,31 @@
     </row>
     <row r="249" spans="1:2">
       <c r="A249">
-        <v>1929</v>
+        <v>2365</v>
       </c>
       <c r="B249">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="250" spans="1:2">
       <c r="A250">
-        <v>1946</v>
+        <v>2492</v>
       </c>
       <c r="B250">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="251" spans="1:2">
       <c r="A251">
-        <v>2034</v>
+        <v>2560</v>
       </c>
       <c r="B251">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="252" spans="1:2">
       <c r="A252">
-        <v>2043</v>
+        <v>2598</v>
       </c>
       <c r="B252">
         <v>1</v>
@@ -3040,15 +2401,15 @@
     </row>
     <row r="253" spans="1:2">
       <c r="A253">
-        <v>2285</v>
+        <v>2706</v>
       </c>
       <c r="B253">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="254" spans="1:2">
       <c r="A254">
-        <v>2297</v>
+        <v>2771</v>
       </c>
       <c r="B254">
         <v>1</v>
@@ -3056,70 +2417,21 @@
     </row>
     <row r="255" spans="1:2">
       <c r="A255">
-        <v>2365</v>
+        <v>2793</v>
       </c>
       <c r="B255">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="256" spans="1:2">
       <c r="A256">
-        <v>2492</v>
+        <v>2813</v>
       </c>
       <c r="B256">
         <v>1</v>
       </c>
     </row>
-    <row r="257" spans="1:2">
-      <c r="A257">
-        <v>2560</v>
-      </c>
-      <c r="B257">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="258" spans="1:2">
-      <c r="A258">
-        <v>2598</v>
-      </c>
-      <c r="B258">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="259" spans="1:2">
-      <c r="A259">
-        <v>2706</v>
-      </c>
-      <c r="B259">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="260" spans="1:2">
-      <c r="A260">
-        <v>2771</v>
-      </c>
-      <c r="B260">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="261" spans="1:2">
-      <c r="A261">
-        <v>2793</v>
-      </c>
-      <c r="B261">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="262" spans="1:2">
-      <c r="A262">
-        <v>2813</v>
-      </c>
-      <c r="B262">
-        <v>1</v>
-      </c>
-    </row>
   </sheetData>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>